--- a/MancalaGameStateMachines.xlsx
+++ b/MancalaGameStateMachines.xlsx
@@ -11,6 +11,7 @@
     <sheet state="visible" name="WITHDRAW" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="DEPOSIT" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="DEPOSIT_MANY" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="REPLAY" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,33 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>START_GAME</t>
   </si>
   <si>
-    <t>RULES:</t>
-  </si>
-  <si>
     <t>GAME STATES</t>
-  </si>
-  <si>
-    <t>1- initialize pits and stores for the new game</t>
-  </si>
-  <si>
-    <t>ACTIONS:</t>
-  </si>
-  <si>
-    <t>initializeStores()</t>
-  </si>
-  <si>
-    <t>empty stores</t>
-  </si>
-  <si>
-    <t>initializePits()</t>
-  </si>
-  <si>
-    <t>deposit all pits with 6 pieces</t>
   </si>
   <si>
     <t>INITIAL</t>
@@ -57,6 +37,27 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>RULES:</t>
+  </si>
+  <si>
+    <t>1- initialize pits and stores for the new game</t>
+  </si>
+  <si>
+    <t>ACTIONS:</t>
+  </si>
+  <si>
+    <t>1- initializeStores()</t>
+  </si>
+  <si>
+    <t>empty stores</t>
+  </si>
+  <si>
+    <t>2- initializePits()</t>
+  </si>
+  <si>
+    <t>deposit all pits with 6 pieces</t>
   </si>
   <si>
     <t>REPLAY</t>
@@ -80,23 +81,10 @@
     <t>MANY_ITEMS</t>
   </si>
   <si>
-    <t>DEPOSIT()</t>
+    <t>RULES</t>
   </si>
   <si>
-    <t>WITHDRAW</t>
-  </si>
-  <si>
-    <t>DEPOSIT
-REPLAY</t>
-  </si>
-  <si>
-    <t>STORE STATES</t>
-  </si>
-  <si>
-    <t>makeNextMove()</t>
-  </si>
-  <si>
-    <t>RULES</t>
+    <t>DEPOSIT()</t>
   </si>
   <si>
     <t xml:space="preserve">1- The player can not make any moves with an empty pit </t>
@@ -108,32 +96,23 @@
     <t xml:space="preserve">3- The player must deposit one piece per each pit anti-clockwise including his store and other player's pits and excluding other player's store </t>
   </si>
   <si>
-    <t>DEPOSIT</t>
+    <t>WITHDRAW</t>
   </si>
   <si>
     <t>4- If the player deposits the last piece on his own store, he gets a new move to play</t>
   </si>
   <si>
-    <t>DEPOSIT_TO_STORE</t>
+    <t>5- While the player deposits all pieces, when the deposited last piece is the only one in his own pit, he withdraws this one piece and all the pieces on the opposite pit and then deposits them all in his own store</t>
   </si>
   <si>
-    <t>endGame()</t>
-  </si>
-  <si>
-    <t>5- While the player deposits all pieces, when the deposited last piece is the only one in his own pit, he withdraws this one piece and all the pieces on the opposite pit and then deposits them all in his own store</t>
+    <t>DEPOSIT
+REPLAY</t>
   </si>
   <si>
     <t>6- The game ends when his all pits emptied</t>
   </si>
   <si>
-    <t>1- Check if all pits of any player are withdrawed completely.</t>
-  </si>
-  <si>
     <t>ACTIONS</t>
-  </si>
-  <si>
-    <t>DEPOSIT
-DEPOSIT_TO_STORE</t>
   </si>
   <si>
     <t xml:space="preserve">1- invoke withdraw() to withdraw all pieces </t>
@@ -148,16 +127,35 @@
     <t>Else If the last deposit occurs at his empty pit then invoke withdraw() for this pit and other player's opposite pit</t>
   </si>
   <si>
+    <t>STORE STATES</t>
+  </si>
+  <si>
     <t>Else invoke wait()</t>
   </si>
   <si>
     <t>4- If all pits of player is empty, invoke endGame()</t>
   </si>
   <si>
-    <t>1- increase the piece number by 1</t>
+    <t>DEPOSIT</t>
   </si>
   <si>
-    <t>DEPOSIT_MANY</t>
+    <t>DEPOSIT_TO_STORE</t>
+  </si>
+  <si>
+    <t>DEPOSIT
+DEPOSIT_TO_STORE</t>
+  </si>
+  <si>
+    <t>1- Check if all pits of any player are withdrawed completely.</t>
+  </si>
+  <si>
+    <t>1- send END_GAME event</t>
+  </si>
+  <si>
+    <t>DEPOSIT  TO PIT</t>
+  </si>
+  <si>
+    <t>1- increase the piece number by 1</t>
   </si>
   <si>
     <t>2- check if total number of pits after the deposit is 1, and pit belong to current user</t>
@@ -166,10 +164,19 @@
     <t>if yes, withdraw this pit and oppenents corresponding pit and deposit them to current user's store</t>
   </si>
   <si>
+    <t>DEPOSIT TO STORE</t>
+  </si>
+  <si>
+    <t>1- Check if the pit is not empty</t>
+  </si>
+  <si>
+    <t>DEPOSIT_MANY</t>
+  </si>
+  <si>
     <t>1- increase the piece number by the total number of pieces that are being deposited to store</t>
   </si>
   <si>
-    <t>1- Check if the pit is not empty</t>
+    <t>1- send DEPOSIT_MANY action</t>
   </si>
   <si>
     <t>2- Check if the player is withdrawing his own pit</t>
@@ -181,7 +188,22 @@
     <t>4- Players can not withdraw his store</t>
   </si>
   <si>
+    <t>REPLAY TO GAME</t>
+  </si>
+  <si>
+    <t>1- Check if game is started</t>
+  </si>
+  <si>
     <t>1- If depositToStore is not asked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Send RESTART event </t>
+  </si>
+  <si>
+    <t>REPLAY TO PIT</t>
+  </si>
+  <si>
+    <t>REPLAY TO STORE</t>
   </si>
   <si>
     <t>invoke withdraw() to withdraw all pieces</t>
@@ -209,18 +231,30 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+    </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+    </font>
+    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -230,6 +264,7 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <sz val="10.0"/>
     </font>
   </fonts>
@@ -277,29 +312,33 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -379,75 +418,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="11649075" cy="4743450"/>
+    <xdr:ext cx="8420100" cy="11553825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="11791950" cy="5153025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="11839575" cy="5248275"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -485,6 +468,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -711,7 +698,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -720,32 +707,32 @@
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -756,20 +743,20 @@
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -778,9 +765,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>17</v>
@@ -793,17 +780,17 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
+      <c r="A12" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>0</v>
@@ -814,13 +801,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>13</v>
@@ -831,16 +818,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -848,104 +835,104 @@
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
+      <c r="A18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
-        <v>9</v>
+      <c r="A21" s="9" t="s">
+        <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
+      <c r="D21" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>12</v>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>12</v>
+      <c r="B23" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
+      <c r="D23" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>12</v>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>12</v>
+      <c r="D24" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -989,34 +976,34 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
+      <c r="A4" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
+      <c r="A8" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
+      <c r="A9" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
+      <c r="A10" s="7" t="s">
+        <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1038,81 +1025,81 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="11">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="18">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+    <row r="19">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1131,18 +1118,28 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
+      <c r="A2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
+      <c r="A4" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1189,13 +1186,13 @@
       <c r="Z1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>21</v>
+      <c r="A2" s="1" t="s">
+        <v>25</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -1219,11 +1216,11 @@
       <c r="Z2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -1248,12 +1245,12 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -1277,13 +1274,13 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>49</v>
+      <c r="A5" s="13" t="s">
+        <v>48</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -1307,13 +1304,13 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>50</v>
+      <c r="A6" s="13" t="s">
+        <v>52</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1337,13 +1334,13 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>51</v>
+      <c r="A7" s="13" t="s">
+        <v>53</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1367,13 +1364,13 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>52</v>
+      <c r="A8" s="13" t="s">
+        <v>54</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1397,11 +1394,11 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1425,11 +1422,11 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1454,12 +1451,12 @@
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -1483,13 +1480,13 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>53</v>
+      <c r="A12" s="13" t="s">
+        <v>57</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -1514,12 +1511,12 @@
     </row>
     <row r="13">
       <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
-        <v>54</v>
+      <c r="B13" s="13" t="s">
+        <v>61</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -1544,12 +1541,12 @@
     </row>
     <row r="14">
       <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
-        <v>55</v>
+      <c r="B14" s="13" t="s">
+        <v>62</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -1573,13 +1570,13 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
-        <v>56</v>
+      <c r="A15" s="13" t="s">
+        <v>63</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1603,13 +1600,13 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12" t="s">
-        <v>57</v>
+      <c r="A16" s="11"/>
+      <c r="B16" s="13" t="s">
+        <v>64</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -1633,13 +1630,13 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12" t="s">
-        <v>58</v>
+      <c r="A17" s="11"/>
+      <c r="B17" s="13" t="s">
+        <v>65</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -1663,13 +1660,13 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12" t="s">
-        <v>59</v>
+      <c r="A18" s="11"/>
+      <c r="B18" s="13" t="s">
+        <v>66</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -1693,13 +1690,13 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12" t="s">
-        <v>60</v>
+      <c r="A19" s="11"/>
+      <c r="B19" s="13" t="s">
+        <v>67</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1723,11 +1720,11 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -1751,11 +1748,11 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -29235,27 +29232,42 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
+      <c r="A4" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="2" t="s">
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -29275,17 +29287,117 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
